--- a/uploads/estimates/file_sample/Sample_detailed_costing_technical_assumptions_en.xlsx
+++ b/uploads/estimates/file_sample/Sample_detailed_costing_technical_assumptions_en.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Area</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>(*)Item</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,36 +383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="50.25" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="50.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/uploads/estimates/file_sample/Sample_detailed_costing_technical_assumptions_en.xlsx
+++ b/uploads/estimates/file_sample/Sample_detailed_costing_technical_assumptions_en.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>(*)Rate</t>
   </si>
   <si>
@@ -31,6 +28,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,7 +385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
@@ -398,16 +400,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="50.25" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
